--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1420281398799347</v>
+        <v>0.1374531038001369</v>
       </c>
       <c r="C2">
-        <v>0.96300297170131</v>
+        <v>0.9463274094814685</v>
       </c>
       <c r="D2">
-        <v>4.425279606777181</v>
+        <v>4.340354840748894</v>
       </c>
       <c r="E2">
-        <v>2.103634855857162</v>
+        <v>2.083351828364306</v>
       </c>
       <c r="F2">
-        <v>2.119719265974769</v>
+        <v>2.099094096015294</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1234272948742712</v>
+        <v>0.1201387303292092</v>
       </c>
       <c r="C3">
-        <v>1.013190509142516</v>
+        <v>0.9941924500794057</v>
       </c>
       <c r="D3">
-        <v>4.456324062957081</v>
+        <v>4.368983621713564</v>
       </c>
       <c r="E3">
-        <v>2.111000725475261</v>
+        <v>2.090211382064877</v>
       </c>
       <c r="F3">
-        <v>2.128784688702496</v>
+        <v>2.10752018100236</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1607615939753095</v>
+        <v>0.1570212086422995</v>
       </c>
       <c r="C4">
-        <v>0.931089636352725</v>
+        <v>0.9129929970791744</v>
       </c>
       <c r="D4">
-        <v>4.199434463388394</v>
+        <v>4.115459563428113</v>
       </c>
       <c r="E4">
-        <v>2.049252171741778</v>
+        <v>2.028659548428004</v>
       </c>
       <c r="F4">
-        <v>2.064107547723181</v>
+        <v>2.043107852613974</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1705283119469347</v>
+        <v>0.1668826930103534</v>
       </c>
       <c r="C5">
-        <v>1.039568901588029</v>
+        <v>1.018518659023897</v>
       </c>
       <c r="D5">
-        <v>4.679721022412824</v>
+        <v>4.584217853051491</v>
       </c>
       <c r="E5">
-        <v>2.163266285599816</v>
+        <v>2.141078665778418</v>
       </c>
       <c r="F5">
-        <v>2.17935562225223</v>
+        <v>2.156685501776154</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1525391686516503</v>
+        <v>0.1498087523549735</v>
       </c>
       <c r="C6">
-        <v>0.9855784814025781</v>
+        <v>0.9654930794235904</v>
       </c>
       <c r="D6">
-        <v>4.478113517829056</v>
+        <v>4.38482909777947</v>
       </c>
       <c r="E6">
-        <v>2.116155362403492</v>
+        <v>2.093998351904669</v>
       </c>
       <c r="F6">
-        <v>2.133468955323994</v>
+        <v>2.110735219814999</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1499266526596538</v>
+        <v>0.1482159292065307</v>
       </c>
       <c r="C7">
-        <v>1.064414420512683</v>
+        <v>1.037301259063642</v>
       </c>
       <c r="D7">
-        <v>5.438196060427977</v>
+        <v>5.28735183827951</v>
       </c>
       <c r="E7">
-        <v>2.33199400951803</v>
+        <v>2.299424240604484</v>
       </c>
       <c r="F7">
-        <v>2.361144613216716</v>
+        <v>2.327192174260785</v>
       </c>
       <c r="G7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1976410009610846</v>
+        <v>0.1958133101793198</v>
       </c>
       <c r="C8">
-        <v>1.090681568482044</v>
+        <v>1.063338432913966</v>
       </c>
       <c r="D8">
-        <v>5.631441200688579</v>
+        <v>5.471053399423887</v>
       </c>
       <c r="E8">
-        <v>2.373065780944258</v>
+        <v>2.339028302399073</v>
       </c>
       <c r="F8">
-        <v>2.400384401062647</v>
+        <v>2.364845904346298</v>
       </c>
       <c r="G8">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.09239737805687215</v>
+        <v>0.1080685240234339</v>
       </c>
       <c r="C9">
-        <v>1.583204764778214</v>
+        <v>1.516053278149146</v>
       </c>
       <c r="D9">
-        <v>10.46499950740384</v>
+        <v>9.891401411246379</v>
       </c>
       <c r="E9">
-        <v>3.234965147788124</v>
+        <v>3.145059842236134</v>
       </c>
       <c r="F9">
-        <v>3.333165330647103</v>
+        <v>3.234328795688273</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.9048319282450621</v>
+        <v>-0.8008619424696254</v>
       </c>
       <c r="C10">
-        <v>1.24155163572068</v>
+        <v>1.150395842953777</v>
       </c>
       <c r="D10">
-        <v>6.750880934367506</v>
+        <v>6.142350263041148</v>
       </c>
       <c r="E10">
-        <v>2.598245741720268</v>
+        <v>2.478376537784594</v>
       </c>
       <c r="F10">
-        <v>2.567350583339397</v>
+        <v>2.459891756431453</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1783908196033299</v>
+        <v>0.2147957804815247</v>
       </c>
       <c r="C2">
-        <v>0.3606156554386025</v>
+        <v>0.3580819848962541</v>
       </c>
       <c r="D2">
-        <v>0.2599511937740667</v>
+        <v>0.2088379301833887</v>
       </c>
       <c r="E2">
-        <v>0.5098540906711122</v>
+        <v>0.4569878884427777</v>
       </c>
       <c r="F2">
-        <v>0.4943913024279584</v>
+        <v>0.4185882721160311</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2147957804815247</v>
+        <v>0.245473867636748</v>
       </c>
       <c r="C3">
-        <v>0.3580819848962541</v>
+        <v>0.3683843928281823</v>
       </c>
       <c r="D3">
-        <v>0.2088379301833887</v>
+        <v>0.2358514199634523</v>
       </c>
       <c r="E3">
-        <v>0.4569878884427777</v>
+        <v>0.4856453644002507</v>
       </c>
       <c r="F3">
-        <v>0.4185882721160311</v>
+        <v>0.4361500127557235</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.245473867636748</v>
+        <v>0.301463903713677</v>
       </c>
       <c r="C4">
-        <v>0.3683843928281823</v>
+        <v>0.3567050099425655</v>
       </c>
       <c r="D4">
-        <v>0.2358514199634523</v>
+        <v>0.2583510523008795</v>
       </c>
       <c r="E4">
-        <v>0.4856453644002507</v>
+        <v>0.5082824532687308</v>
       </c>
       <c r="F4">
-        <v>0.4361500127557235</v>
+        <v>0.4274285484895888</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.301463903713677</v>
+        <v>0.2900334324511264</v>
       </c>
       <c r="C5">
-        <v>0.3567050099425655</v>
+        <v>0.3439303588265401</v>
       </c>
       <c r="D5">
-        <v>0.2583510523008795</v>
+        <v>0.1874043702602189</v>
       </c>
       <c r="E5">
-        <v>0.5082824532687308</v>
+        <v>0.4329022640968963</v>
       </c>
       <c r="F5">
-        <v>0.4274285484895888</v>
+        <v>0.3370659818980856</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2900334324511264</v>
+        <v>0.2833661826906564</v>
       </c>
       <c r="C6">
-        <v>0.3439303588265401</v>
+        <v>0.2909807410604855</v>
       </c>
       <c r="D6">
-        <v>0.1874043702602189</v>
+        <v>0.2099604875429734</v>
       </c>
       <c r="E6">
-        <v>0.4329022640968963</v>
+        <v>0.4582144558424291</v>
       </c>
       <c r="F6">
-        <v>0.3370659818980856</v>
+        <v>0.3795671424286398</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2833661826906564</v>
+        <v>0.3070978867771534</v>
       </c>
       <c r="C7">
-        <v>0.2909807410604855</v>
+        <v>0.3733636115588901</v>
       </c>
       <c r="D7">
-        <v>0.2099604875429734</v>
+        <v>0.2272551859511885</v>
       </c>
       <c r="E7">
-        <v>0.4582144558424291</v>
+        <v>0.476712896774556</v>
       </c>
       <c r="F7">
-        <v>0.3795671424286398</v>
+        <v>0.3867354821117653</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3070978867771534</v>
+        <v>0.3125739411747067</v>
       </c>
       <c r="C8">
-        <v>0.3733636115588901</v>
+        <v>0.4101416856701894</v>
       </c>
       <c r="D8">
-        <v>0.2272551859511885</v>
+        <v>0.3161064439746084</v>
       </c>
       <c r="E8">
-        <v>0.476712896774556</v>
+        <v>0.5622334425971194</v>
       </c>
       <c r="F8">
-        <v>0.3867354821117653</v>
+        <v>0.499604386659364</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4818104178965973</v>
+        <v>0.2627214152773011</v>
       </c>
       <c r="C9">
-        <v>0.4818104178965973</v>
+        <v>0.3235434349789264</v>
       </c>
       <c r="D9">
-        <v>0.4086707003526728</v>
+        <v>0.1669924024756296</v>
       </c>
       <c r="E9">
-        <v>0.6392735723871845</v>
+        <v>0.4086470389904099</v>
       </c>
       <c r="F9">
-        <v>0.4602556961850388</v>
+        <v>0.3380801243818421</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2297780799482224</v>
+        <v>0.3023013051968123</v>
       </c>
       <c r="C10">
-        <v>0.2410916961729521</v>
+        <v>0.3856149542229345</v>
       </c>
       <c r="D10">
-        <v>0.09195223546803079</v>
+        <v>0.3827274330185637</v>
       </c>
       <c r="E10">
-        <v>0.303236270040427</v>
+        <v>0.618649685216572</v>
       </c>
       <c r="F10">
-        <v>0.2423456295562365</v>
+        <v>0.5912779588939882</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2888921154092369</v>
+        <v>0.302435154479656</v>
       </c>
       <c r="C11">
-        <v>0.2888921154092369</v>
+        <v>0.4668197381621303</v>
       </c>
       <c r="D11">
-        <v>0.08345865434562384</v>
+        <v>0.3675323742590614</v>
       </c>
       <c r="E11">
-        <v>0.2888921154092369</v>
+        <v>0.6062444838999044</v>
+      </c>
+      <c r="F11">
+        <v>0.5874365408215683</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2147957804815247</v>
+        <v>0.1783908196033299</v>
       </c>
       <c r="C2">
-        <v>0.3580819848962541</v>
+        <v>0.3606156554386025</v>
       </c>
       <c r="D2">
-        <v>0.2088379301833887</v>
+        <v>0.2599511937740667</v>
       </c>
       <c r="E2">
-        <v>0.4569878884427777</v>
+        <v>0.5098540906711122</v>
       </c>
       <c r="F2">
-        <v>0.4185882721160311</v>
+        <v>0.4943913024279584</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.245473867636748</v>
+        <v>0.2147957804815247</v>
       </c>
       <c r="C3">
-        <v>0.3683843928281823</v>
+        <v>0.3580819848962541</v>
       </c>
       <c r="D3">
-        <v>0.2358514199634523</v>
+        <v>0.2088379301833887</v>
       </c>
       <c r="E3">
-        <v>0.4856453644002507</v>
+        <v>0.4569878884427777</v>
       </c>
       <c r="F3">
-        <v>0.4361500127557235</v>
+        <v>0.4185882721160311</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.301463903713677</v>
+        <v>0.245473867636748</v>
       </c>
       <c r="C4">
-        <v>0.3567050099425655</v>
+        <v>0.3683843928281823</v>
       </c>
       <c r="D4">
-        <v>0.2583510523008795</v>
+        <v>0.2358514199634523</v>
       </c>
       <c r="E4">
-        <v>0.5082824532687308</v>
+        <v>0.4856453644002507</v>
       </c>
       <c r="F4">
-        <v>0.4274285484895888</v>
+        <v>0.4361500127557235</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2900334324511264</v>
+        <v>0.301463903713677</v>
       </c>
       <c r="C5">
-        <v>0.3439303588265401</v>
+        <v>0.3567050099425655</v>
       </c>
       <c r="D5">
-        <v>0.1874043702602189</v>
+        <v>0.2583510523008795</v>
       </c>
       <c r="E5">
-        <v>0.4329022640968963</v>
+        <v>0.5082824532687308</v>
       </c>
       <c r="F5">
-        <v>0.3370659818980856</v>
+        <v>0.4274285484895888</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2833661826906564</v>
+        <v>0.2900334324511264</v>
       </c>
       <c r="C6">
-        <v>0.2909807410604855</v>
+        <v>0.3439303588265401</v>
       </c>
       <c r="D6">
-        <v>0.2099604875429734</v>
+        <v>0.1874043702602189</v>
       </c>
       <c r="E6">
-        <v>0.4582144558424291</v>
+        <v>0.4329022640968963</v>
       </c>
       <c r="F6">
-        <v>0.3795671424286398</v>
+        <v>0.3370659818980856</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3070978867771534</v>
+        <v>0.2833661826906564</v>
       </c>
       <c r="C7">
-        <v>0.3733636115588901</v>
+        <v>0.2909807410604855</v>
       </c>
       <c r="D7">
-        <v>0.2272551859511885</v>
+        <v>0.2099604875429734</v>
       </c>
       <c r="E7">
-        <v>0.476712896774556</v>
+        <v>0.4582144558424291</v>
       </c>
       <c r="F7">
-        <v>0.3867354821117653</v>
+        <v>0.3795671424286398</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3125739411747067</v>
+        <v>0.3070978867771534</v>
       </c>
       <c r="C8">
-        <v>0.4101416856701894</v>
+        <v>0.3733636115588901</v>
       </c>
       <c r="D8">
-        <v>0.3161064439746084</v>
+        <v>0.2272551859511885</v>
       </c>
       <c r="E8">
-        <v>0.5622334425971194</v>
+        <v>0.476712896774556</v>
       </c>
       <c r="F8">
-        <v>0.499604386659364</v>
+        <v>0.3867354821117653</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2627214152773011</v>
+        <v>0.3125739411747067</v>
       </c>
       <c r="C9">
-        <v>0.3235434349789264</v>
+        <v>0.4101416856701894</v>
       </c>
       <c r="D9">
-        <v>0.1669924024756296</v>
+        <v>0.3161064439746084</v>
       </c>
       <c r="E9">
-        <v>0.4086470389904099</v>
+        <v>0.5622334425971194</v>
       </c>
       <c r="F9">
-        <v>0.3380801243818421</v>
+        <v>0.499604386659364</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.3023013051968123</v>
+        <v>0.2627214152773011</v>
       </c>
       <c r="C10">
-        <v>0.3856149542229345</v>
+        <v>0.3235434349789264</v>
       </c>
       <c r="D10">
-        <v>0.3827274330185637</v>
+        <v>0.1669924024756296</v>
       </c>
       <c r="E10">
-        <v>0.618649685216572</v>
+        <v>0.4086470389904099</v>
       </c>
       <c r="F10">
-        <v>0.5912779588939882</v>
+        <v>0.3380801243818421</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.302435154479656</v>
+        <v>0.3023013051968123</v>
       </c>
       <c r="C11">
-        <v>0.4668197381621303</v>
+        <v>0.3856149542229345</v>
       </c>
       <c r="D11">
-        <v>0.3675323742590614</v>
+        <v>0.3827274330185637</v>
       </c>
       <c r="E11">
-        <v>0.6062444838999044</v>
+        <v>0.618649685216572</v>
       </c>
       <c r="F11">
-        <v>0.5874365408215683</v>
+        <v>0.5912779588939882</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1783908196033299</v>
+        <v>0.1374531038001369</v>
       </c>
       <c r="C2">
-        <v>0.3606156554386025</v>
+        <v>0.9463274094814685</v>
       </c>
       <c r="D2">
-        <v>0.2599511937740667</v>
+        <v>4.340354840748894</v>
       </c>
       <c r="E2">
-        <v>0.5098540906711122</v>
+        <v>2.083351828364306</v>
       </c>
       <c r="F2">
-        <v>0.4943913024279584</v>
+        <v>2.099094096015294</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2147957804815247</v>
+        <v>0.1201387303292092</v>
       </c>
       <c r="C3">
-        <v>0.3580819848962541</v>
+        <v>0.9941924500794057</v>
       </c>
       <c r="D3">
-        <v>0.2088379301833887</v>
+        <v>4.368983621713564</v>
       </c>
       <c r="E3">
-        <v>0.4569878884427777</v>
+        <v>2.090211382064877</v>
       </c>
       <c r="F3">
-        <v>0.4185882721160311</v>
+        <v>2.10752018100236</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.245473867636748</v>
+        <v>0.1570212086422995</v>
       </c>
       <c r="C4">
-        <v>0.3683843928281823</v>
+        <v>0.9129929970791744</v>
       </c>
       <c r="D4">
-        <v>0.2358514199634523</v>
+        <v>4.115459563428113</v>
       </c>
       <c r="E4">
-        <v>0.4856453644002507</v>
+        <v>2.028659548428004</v>
       </c>
       <c r="F4">
-        <v>0.4361500127557235</v>
+        <v>2.043107852613974</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.301463903713677</v>
+        <v>0.1668826930103534</v>
       </c>
       <c r="C5">
-        <v>0.3567050099425655</v>
+        <v>1.018518659023897</v>
       </c>
       <c r="D5">
-        <v>0.2583510523008795</v>
+        <v>4.584217853051491</v>
       </c>
       <c r="E5">
-        <v>0.5082824532687308</v>
+        <v>2.141078665778418</v>
       </c>
       <c r="F5">
-        <v>0.4274285484895888</v>
+        <v>2.156685501776154</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2900334324511264</v>
+        <v>0.1498087523549735</v>
       </c>
       <c r="C6">
-        <v>0.3439303588265401</v>
+        <v>0.9654930794235904</v>
       </c>
       <c r="D6">
-        <v>0.1874043702602189</v>
+        <v>4.38482909777947</v>
       </c>
       <c r="E6">
-        <v>0.4329022640968963</v>
+        <v>2.093998351904669</v>
       </c>
       <c r="F6">
-        <v>0.3370659818980856</v>
+        <v>2.110735219814999</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2833661826906564</v>
+        <v>0.1482159292065307</v>
       </c>
       <c r="C7">
-        <v>0.2909807410604855</v>
+        <v>1.037301259063642</v>
       </c>
       <c r="D7">
-        <v>0.2099604875429734</v>
+        <v>5.28735183827951</v>
       </c>
       <c r="E7">
-        <v>0.4582144558424291</v>
+        <v>2.299424240604484</v>
       </c>
       <c r="F7">
-        <v>0.3795671424286398</v>
+        <v>2.327192174260785</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3070978867771534</v>
+        <v>0.1958133101793198</v>
       </c>
       <c r="C8">
-        <v>0.3733636115588901</v>
+        <v>1.063338432913966</v>
       </c>
       <c r="D8">
-        <v>0.2272551859511885</v>
+        <v>5.471053399423887</v>
       </c>
       <c r="E8">
-        <v>0.476712896774556</v>
+        <v>2.339028302399073</v>
       </c>
       <c r="F8">
-        <v>0.3867354821117653</v>
+        <v>2.364845904346298</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3125739411747067</v>
+        <v>0.1080685240234339</v>
       </c>
       <c r="C9">
-        <v>0.4101416856701894</v>
+        <v>1.516053278149146</v>
       </c>
       <c r="D9">
-        <v>0.3161064439746084</v>
+        <v>9.891401411246379</v>
       </c>
       <c r="E9">
-        <v>0.5622334425971194</v>
+        <v>3.145059842236134</v>
       </c>
       <c r="F9">
-        <v>0.499604386659364</v>
+        <v>3.234328795688273</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2627214152773011</v>
+        <v>-0.8008619424696254</v>
       </c>
       <c r="C10">
-        <v>0.3235434349789264</v>
+        <v>1.150395842953777</v>
       </c>
       <c r="D10">
-        <v>0.1669924024756296</v>
+        <v>6.142350263041148</v>
       </c>
       <c r="E10">
-        <v>0.4086470389904099</v>
+        <v>2.478376537784594</v>
       </c>
       <c r="F10">
-        <v>0.3380801243818421</v>
+        <v>2.459891756431453</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3023013051968123</v>
+        <v>0.1495946378431339</v>
       </c>
       <c r="C11">
-        <v>0.3856149542229345</v>
+        <v>0.4169860915672885</v>
       </c>
       <c r="D11">
-        <v>0.3827274330185637</v>
+        <v>0.2389570720534238</v>
       </c>
       <c r="E11">
-        <v>0.618649685216572</v>
+        <v>0.4888323557759078</v>
       </c>
       <c r="F11">
-        <v>0.5912779588939882</v>
+        <v>0.5203106240290569</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
